--- a/mAjustesInventario/bak_Libro2.xlsx
+++ b/mAjustesInventario/bak_Libro2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Acosta\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4C0077C-ACAB-4B28-AAF3-0E4ED8E72A41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D2FFF7D-8A9A-45B7-9DDA-3CAA9CDF35B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AC9E20B5-EA92-43F8-BE40-FFFC6BDC5B9E}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="19152" windowHeight="12360" xr2:uid="{EF475F4B-777F-4F6A-BDE5-858143E8AE6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,87 +34,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>1104</t>
-  </si>
-  <si>
-    <t>0708</t>
-  </si>
-  <si>
-    <t>1013</t>
-  </si>
-  <si>
-    <t>7501024528127</t>
-  </si>
-  <si>
-    <t>00970</t>
-  </si>
-  <si>
-    <t>041789001918</t>
-  </si>
-  <si>
-    <t>7500503299916</t>
-  </si>
-  <si>
-    <t>0552</t>
-  </si>
-  <si>
-    <t>7501032398583</t>
-  </si>
-  <si>
-    <t>7502280161523</t>
-  </si>
-  <si>
-    <t>759684272103</t>
-  </si>
-  <si>
-    <t>012388003191</t>
-  </si>
-  <si>
-    <t>037195500145</t>
-  </si>
-  <si>
-    <t>070330519220</t>
-  </si>
-  <si>
-    <t>1011</t>
-  </si>
-  <si>
-    <t>1012</t>
-  </si>
-  <si>
-    <t>602760000575</t>
-  </si>
-  <si>
-    <t>721054</t>
-  </si>
-  <si>
-    <t>7500464075505</t>
-  </si>
-  <si>
-    <t>7501013101256</t>
-  </si>
-  <si>
-    <t>7501040082252</t>
-  </si>
-  <si>
-    <t>7503022687370</t>
-  </si>
-  <si>
-    <t>7506192507813</t>
-  </si>
-  <si>
-    <t>840004022123</t>
-  </si>
-  <si>
-    <t>3136</t>
-  </si>
-  <si>
-    <t>2128</t>
-  </si>
-  <si>
-    <t>0709</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>0512</t>
+  </si>
+  <si>
+    <t>7622210688248</t>
+  </si>
+  <si>
+    <t>0524</t>
+  </si>
+  <si>
+    <t>744831195725</t>
+  </si>
+  <si>
+    <t>7501008042823</t>
+  </si>
+  <si>
+    <t>7509546072401</t>
+  </si>
+  <si>
+    <t>0513</t>
+  </si>
+  <si>
+    <t>7501071904103</t>
+  </si>
+  <si>
+    <t>7501071907739</t>
+  </si>
+  <si>
+    <t>7503014279231</t>
+  </si>
+  <si>
+    <t>771330</t>
+  </si>
+  <si>
+    <t>0937</t>
+  </si>
+  <si>
+    <t>0564</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>1138</t>
+  </si>
+  <si>
+    <t>0322</t>
   </si>
 </sst>
 </file>
@@ -465,8 +433,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6356AF16-78AE-4FC3-BDE9-AADC23BBB042}">
-  <dimension ref="A1:B27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470D432A-BF5C-4D38-A3ED-69E8F91A73C0}">
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -479,7 +447,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>50</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -487,7 +455,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -495,7 +463,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -503,7 +471,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -511,7 +479,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -519,7 +487,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -535,7 +503,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -543,7 +511,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -551,7 +519,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -559,7 +527,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -567,7 +535,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -575,7 +543,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -583,7 +551,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -591,7 +559,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -599,95 +567,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
